--- a/datenRF4/AFL/i=23,28, Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L2_S4_i23_Fremdlüfter.xlsx
+++ b/datenRF4/AFL/i=23,28, Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L2_S4_i23_Fremdlüfter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="124">
   <si>
     <t>Sequenz</t>
   </si>
@@ -481,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -865,11 +865,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -914,7 +964,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -966,9 +1015,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -976,9 +1022,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1006,10 +1049,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1049,7 +1092,45 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1356,7 +1437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1370,14 +1451,14 @@
       <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="5" max="5" width="35" customWidth="1"/>
     <col min="6" max="6" width="16.26953125" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" style="39" customWidth="1"/>
     <col min="9" max="9" width="38.26953125" customWidth="1"/>
     <col min="10" max="10" width="11.26953125" customWidth="1"/>
     <col min="11" max="11" width="24.1796875" customWidth="1"/>
@@ -1389,47 +1470,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="106" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="98" t="s">
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="108" t="s">
+      <c r="D2" s="100"/>
+      <c r="E2" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="110"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
@@ -1460,10 +1541,10 @@
       <c r="E3" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="G3" s="91" t="s">
         <v>119</v>
       </c>
       <c r="H3" s="27" t="s">
@@ -1507,37 +1588,37 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="46" customHeight="1" thickBot="1">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="H4" s="38">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="H4" s="37">
         <v>0</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="47" t="s">
+      <c r="I4" s="37"/>
+      <c r="J4" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48" t="s">
+      <c r="K4" s="46"/>
+      <c r="L4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="56" t="s">
+      <c r="M4" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="58" t="s">
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="S4" s="57" t="s">
+      <c r="S4" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="T4" s="59"/>
+      <c r="T4" s="58"/>
     </row>
     <row r="5" spans="1:20" ht="87">
       <c r="A5" s="7">
@@ -1555,39 +1636,39 @@
       <c r="E5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="80" t="s">
         <v>96</v>
       </c>
       <c r="G5" s="15"/>
-      <c r="H5" s="40">
-        <v>1</v>
-      </c>
-      <c r="I5" s="40" t="s">
+      <c r="H5" s="39">
+        <v>1</v>
+      </c>
+      <c r="I5" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="41" t="s">
+      <c r="K5" s="48"/>
+      <c r="L5" s="40" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="45">
         <v>4</v>
       </c>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="60" t="s">
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="S5" s="46" t="s">
+      <c r="S5" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="T5" s="61">
+      <c r="T5" s="60">
         <v>1</v>
       </c>
     </row>
@@ -1604,89 +1685,91 @@
       <c r="D6" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="41"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="22"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="61"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="60"/>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1">
       <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="108">
+        <v>3</v>
+      </c>
       <c r="C7" s="17">
         <v>1</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="64">
         <v>23355</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="61"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="60"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="H8" s="40">
-        <v>1</v>
-      </c>
-      <c r="I8" s="40" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="H8" s="39">
+        <v>1</v>
+      </c>
+      <c r="I8" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="49"/>
-      <c r="L8" s="41" t="s">
+      <c r="K8" s="48"/>
+      <c r="L8" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="39"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="61"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="60"/>
     </row>
     <row r="9" spans="1:20" ht="101.5">
       <c r="A9" s="7">
@@ -1704,24 +1787,24 @@
       <c r="E9" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="F9" s="80" t="s">
         <v>103</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="40">
+      <c r="H9" s="39">
         <v>2</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="50" t="s">
+      <c r="J9" s="39"/>
+      <c r="K9" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="41" t="s">
         <v>106</v>
       </c>
       <c r="N9" s="18">
@@ -1730,13 +1813,13 @@
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
-      <c r="R9" s="62" t="s">
+      <c r="R9" s="61" t="s">
         <v>110</v>
       </c>
       <c r="S9" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="T9" s="63">
+      <c r="T9" s="62">
         <v>1</v>
       </c>
     </row>
@@ -1756,23 +1839,23 @@
       <c r="E10" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="83" t="s">
         <v>96</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="40"/>
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1">
       <c r="A11" s="10">
@@ -1787,66 +1870,70 @@
       <c r="D11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="84" t="s">
+      <c r="F11" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="41"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="40"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="69">
-        <v>1</v>
-      </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71">
-        <v>1</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="72" t="s">
+      <c r="A12" s="67">
+        <v>1</v>
+      </c>
+      <c r="B12" s="109">
+        <v>3</v>
+      </c>
+      <c r="C12" s="68">
+        <v>1</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="F12" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="70">
         <v>23355</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="40"/>
     </row>
     <row r="13" spans="1:20" ht="29.5" thickBot="1">
       <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="121">
+        <v>3</v>
+      </c>
       <c r="C13" s="12">
         <v>2</v>
       </c>
@@ -1856,254 +1943,254 @@
       <c r="E13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="85" t="s">
         <v>73</v>
       </c>
       <c r="G13" s="14">
         <v>14111</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="41"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="40"/>
     </row>
     <row r="14" spans="1:20" ht="101.5">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="H14" s="40">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="H14" s="39">
         <v>3</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50" t="s">
+      <c r="J14" s="48"/>
+      <c r="K14" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="L14" s="51" t="s">
+      <c r="L14" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="41"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="40"/>
     </row>
     <row r="15" spans="1:20" ht="87">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="H15" s="40">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="H15" s="39">
         <v>4</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50" t="s">
+      <c r="J15" s="48"/>
+      <c r="K15" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="51" t="s">
+      <c r="L15" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="41"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="40"/>
     </row>
     <row r="16" spans="1:20" ht="72.5">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="H16" s="40">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="H16" s="39">
         <v>5</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50" t="s">
+      <c r="J16" s="48"/>
+      <c r="K16" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="51" t="s">
+      <c r="L16" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="41"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="40"/>
     </row>
     <row r="17" spans="1:20" ht="29">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="H17" s="40">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="H17" s="39">
         <v>6</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="51" t="s">
+      <c r="K17" s="48"/>
+      <c r="L17" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="41"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="40"/>
     </row>
     <row r="18" spans="1:20" ht="29">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="H18" s="40">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="H18" s="39">
         <v>6</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="51" t="s">
+      <c r="K18" s="48"/>
+      <c r="L18" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="39"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="41"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="40"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="41"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="40"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="41"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="40"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="41"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="40"/>
     </row>
     <row r="22" spans="1:20" ht="15" thickBot="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="41"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="40"/>
     </row>
     <row r="23" spans="1:20" ht="87">
       <c r="A23" s="7">
@@ -2121,24 +2208,24 @@
       <c r="E23" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="83" t="s">
+      <c r="F23" s="80" t="s">
         <v>103</v>
       </c>
       <c r="G23" s="15"/>
-      <c r="H23" s="40">
+      <c r="H23" s="39">
         <v>7</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="49" t="s">
+      <c r="J23" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="49"/>
-      <c r="L23" s="51" t="s">
+      <c r="K23" s="48"/>
+      <c r="L23" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="M23" s="41" t="s">
         <v>106</v>
       </c>
       <c r="N23" s="18">
@@ -2147,13 +2234,13 @@
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
-      <c r="R23" s="62" t="s">
+      <c r="R23" s="61" t="s">
         <v>110</v>
       </c>
       <c r="S23" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="T23" s="63">
+      <c r="T23" s="62">
         <v>1</v>
       </c>
     </row>
@@ -2173,23 +2260,23 @@
       <c r="E24" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="86" t="s">
+      <c r="F24" s="83" t="s">
         <v>96</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="41"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="40"/>
     </row>
     <row r="25" spans="1:20" ht="15" thickBot="1">
       <c r="A25" s="10">
@@ -2204,66 +2291,70 @@
       <c r="D25" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="84" t="s">
+      <c r="F25" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="68"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="41"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="40"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="69">
-        <v>1</v>
-      </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="71">
-        <v>1</v>
-      </c>
-      <c r="D26" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="72" t="s">
+      <c r="A26" s="67">
+        <v>1</v>
+      </c>
+      <c r="B26" s="109">
+        <v>3</v>
+      </c>
+      <c r="C26" s="68">
+        <v>1</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="87" t="s">
+      <c r="F26" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="73">
+      <c r="G26" s="70">
         <v>23355</v>
       </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="41"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="40"/>
     </row>
     <row r="27" spans="1:20" ht="29.5" thickBot="1">
       <c r="A27" s="10">
         <v>2</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="109">
+        <v>3</v>
+      </c>
       <c r="C27" s="12">
         <v>2</v>
       </c>
@@ -2273,163 +2364,163 @@
       <c r="E27" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="88" t="s">
+      <c r="F27" s="85" t="s">
         <v>73</v>
       </c>
       <c r="G27" s="14">
         <v>14111</v>
       </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="41"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="40"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="41"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="40"/>
     </row>
     <row r="29" spans="1:20" ht="29">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="H29" s="40">
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="H29" s="39">
         <v>7</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="I29" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="J29" s="49" t="s">
+      <c r="J29" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="49"/>
-      <c r="L29" s="51" t="s">
+      <c r="K29" s="48"/>
+      <c r="L29" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="41"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="40"/>
     </row>
     <row r="30" spans="1:20" ht="29">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="H30" s="40">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="H30" s="39">
         <v>7</v>
       </c>
-      <c r="I30" s="40" t="s">
+      <c r="I30" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="49" t="s">
+      <c r="J30" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="49"/>
-      <c r="L30" s="51" t="s">
+      <c r="K30" s="48"/>
+      <c r="L30" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="M30" s="39"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="41"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="40"/>
     </row>
     <row r="31" spans="1:20" ht="29">
-      <c r="A31" s="42"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="19"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="40">
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="39">
         <v>7</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="J31" s="49" t="s">
+      <c r="J31" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="49"/>
-      <c r="L31" s="51" t="s">
+      <c r="K31" s="48"/>
+      <c r="L31" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="39"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="41"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="40"/>
     </row>
     <row r="32" spans="1:20" ht="44" thickBot="1">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="H32" s="40">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="H32" s="39">
         <v>8</v>
       </c>
-      <c r="I32" s="40" t="s">
+      <c r="I32" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="J32" s="49" t="s">
+      <c r="J32" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="49"/>
-      <c r="L32" s="51" t="s">
+      <c r="K32" s="48"/>
+      <c r="L32" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="39"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="41"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="40"/>
     </row>
     <row r="33" spans="1:20" ht="87">
       <c r="A33" s="7">
@@ -2447,39 +2538,39 @@
       <c r="E33" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="83" t="s">
+      <c r="F33" s="80" t="s">
         <v>103</v>
       </c>
       <c r="G33" s="15"/>
-      <c r="H33" s="40">
+      <c r="H33" s="39">
         <v>8</v>
       </c>
-      <c r="I33" s="40" t="s">
+      <c r="I33" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="J33" s="49" t="s">
+      <c r="J33" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K33" s="49"/>
-      <c r="L33" s="52" t="s">
+      <c r="K33" s="48"/>
+      <c r="L33" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="42" t="s">
+      <c r="M33" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="N33" s="40">
+      <c r="N33" s="39">
         <v>7</v>
       </c>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="62" t="s">
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="61" t="s">
         <v>110</v>
       </c>
       <c r="S33" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="T33" s="63">
+      <c r="T33" s="62">
         <v>1</v>
       </c>
     </row>
@@ -2499,140 +2590,150 @@
       <c r="E34" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="86" t="s">
+      <c r="F34" s="83" t="s">
         <v>96</v>
       </c>
       <c r="G34" s="5"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="41"/>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="2">
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="40"/>
+    </row>
+    <row r="35" spans="1:20" ht="15" thickBot="1">
+      <c r="A35" s="111">
         <v>6</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="112">
         <v>2</v>
       </c>
-      <c r="C35" s="4">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="21" t="s">
+      <c r="C35" s="113">
+        <v>1</v>
+      </c>
+      <c r="D35" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="86" t="s">
+      <c r="F35" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="41"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="40"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="69">
-        <v>1</v>
-      </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="71">
-        <v>1</v>
-      </c>
-      <c r="D36" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="72" t="s">
+      <c r="A36" s="7">
+        <v>1</v>
+      </c>
+      <c r="B36" s="117">
+        <v>3</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="87" t="s">
+      <c r="F36" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="94">
+      <c r="G36" s="120">
         <v>23355</v>
       </c>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="41"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="40"/>
     </row>
     <row r="37" spans="1:20" ht="15" thickBot="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="111" t="s">
+      <c r="A37" s="30">
+        <v>2</v>
+      </c>
+      <c r="B37" s="110">
+        <v>3</v>
+      </c>
+      <c r="C37" s="31">
+        <v>6</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="F37" s="91" t="s">
+      <c r="F37" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="35">
         <v>17132</v>
       </c>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="41"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="40"/>
     </row>
     <row r="38" spans="1:20" ht="15" thickBot="1">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="41"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="40"/>
     </row>
     <row r="39" spans="1:20" ht="58">
       <c r="A39" s="7">
@@ -2650,37 +2751,37 @@
       <c r="E39" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="83" t="s">
+      <c r="F39" s="80" t="s">
         <v>103</v>
       </c>
       <c r="G39" s="15"/>
-      <c r="H39" s="40">
+      <c r="H39" s="39">
         <v>9</v>
       </c>
-      <c r="I39" s="40" t="s">
+      <c r="I39" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J39" s="49" t="s">
+      <c r="J39" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="K39" s="49"/>
-      <c r="L39" s="51" t="s">
+      <c r="K39" s="48"/>
+      <c r="L39" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M39" s="42" t="s">
+      <c r="M39" s="41" t="s">
         <v>111</v>
       </c>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
       <c r="Q39" s="18"/>
-      <c r="R39" s="62" t="s">
+      <c r="R39" s="61" t="s">
         <v>113</v>
       </c>
       <c r="S39" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="T39" s="41"/>
+      <c r="T39" s="40"/>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="2">
@@ -2698,23 +2799,23 @@
       <c r="E40" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="86" t="s">
+      <c r="F40" s="83" t="s">
         <v>96</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="41"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="40"/>
     </row>
     <row r="41" spans="1:20" ht="15" thickBot="1">
       <c r="A41" s="10">
@@ -2729,167 +2830,177 @@
       <c r="D41" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="67" t="s">
+      <c r="E41" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="84" t="s">
+      <c r="F41" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="G41" s="68"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="41"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="40"/>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="69">
-        <v>1</v>
-      </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="71">
-        <v>1</v>
-      </c>
-      <c r="D42" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="72" t="s">
+      <c r="A42" s="67">
+        <v>1</v>
+      </c>
+      <c r="B42" s="109">
+        <v>3</v>
+      </c>
+      <c r="C42" s="68">
+        <v>1</v>
+      </c>
+      <c r="D42" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="87" t="s">
+      <c r="F42" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="G42" s="73">
+      <c r="G42" s="70">
         <v>23355</v>
       </c>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="41"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="40"/>
     </row>
     <row r="43" spans="1:20" ht="15" thickBot="1">
-      <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="111" t="s">
+      <c r="A43" s="30">
+        <v>2</v>
+      </c>
+      <c r="B43" s="121">
+        <v>3</v>
+      </c>
+      <c r="C43" s="31">
+        <v>6</v>
+      </c>
+      <c r="D43" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="F43" s="91" t="s">
+      <c r="F43" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="35">
         <v>17132</v>
       </c>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="41"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="40"/>
     </row>
     <row r="44" spans="1:20">
-      <c r="A44" s="39"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="41"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="40"/>
     </row>
     <row r="45" spans="1:20" ht="29">
-      <c r="A45" s="39"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="H45" s="40">
+      <c r="A45" s="38"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="H45" s="39">
         <v>10</v>
       </c>
-      <c r="I45" s="40" t="s">
+      <c r="I45" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="49" t="s">
+      <c r="J45" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="K45" s="49"/>
-      <c r="L45" s="52" t="s">
+      <c r="K45" s="48"/>
+      <c r="L45" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="M45" s="39"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="41"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="40"/>
     </row>
     <row r="46" spans="1:20" ht="73" thickBot="1">
-      <c r="A46" s="39"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="H46" s="40">
+      <c r="A46" s="38"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="H46" s="39">
         <v>11</v>
       </c>
-      <c r="I46" s="40" t="s">
+      <c r="I46" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J46" s="49"/>
-      <c r="K46" s="53" t="s">
+      <c r="J46" s="48"/>
+      <c r="K46" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="L46" s="51" t="s">
+      <c r="L46" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="M46" s="39"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="41"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="40"/>
     </row>
     <row r="47" spans="1:20" ht="58">
       <c r="A47" s="7">
@@ -2907,24 +3018,24 @@
       <c r="E47" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="83" t="s">
+      <c r="F47" s="80" t="s">
         <v>103</v>
       </c>
       <c r="G47" s="15"/>
-      <c r="H47" s="40">
+      <c r="H47" s="39">
         <v>12</v>
       </c>
-      <c r="I47" s="40" t="s">
+      <c r="I47" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J47" s="49" t="s">
+      <c r="J47" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="K47" s="49"/>
-      <c r="L47" s="52" t="s">
+      <c r="K47" s="48"/>
+      <c r="L47" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="M47" s="42" t="s">
+      <c r="M47" s="41" t="s">
         <v>111</v>
       </c>
       <c r="N47" s="18"/>
@@ -2937,13 +3048,13 @@
       <c r="Q47" s="18">
         <v>1.8</v>
       </c>
-      <c r="R47" s="62" t="s">
+      <c r="R47" s="61" t="s">
         <v>113</v>
       </c>
       <c r="S47" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="T47" s="41"/>
+      <c r="T47" s="40"/>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="2">
@@ -2961,23 +3072,23 @@
       <c r="E48" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="86" t="s">
+      <c r="F48" s="83" t="s">
         <v>96</v>
       </c>
       <c r="G48" s="5"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="41"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="40"/>
     </row>
     <row r="49" spans="1:20" ht="15" thickBot="1">
       <c r="A49" s="10">
@@ -2992,214 +3103,224 @@
       <c r="D49" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="67" t="s">
+      <c r="E49" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="F49" s="84" t="s">
+      <c r="F49" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="G49" s="68"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="41"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="40"/>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="69">
-        <v>1</v>
-      </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="71">
-        <v>1</v>
-      </c>
-      <c r="D50" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="72" t="s">
+      <c r="A50" s="67">
+        <v>1</v>
+      </c>
+      <c r="B50" s="109">
+        <v>3</v>
+      </c>
+      <c r="C50" s="68">
+        <v>1</v>
+      </c>
+      <c r="D50" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="F50" s="87" t="s">
+      <c r="F50" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="G50" s="96">
+      <c r="G50" s="92">
         <v>23355</v>
       </c>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="41"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="40"/>
     </row>
     <row r="51" spans="1:20" ht="15" thickBot="1">
-      <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="111" t="s">
+      <c r="A51" s="30">
+        <v>2</v>
+      </c>
+      <c r="B51" s="110">
+        <v>3</v>
+      </c>
+      <c r="C51" s="31">
+        <v>6</v>
+      </c>
+      <c r="D51" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="91" t="s">
+      <c r="F51" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="G51" s="36">
+      <c r="G51" s="35">
         <v>17132</v>
       </c>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="41"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="40"/>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="39"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="41"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="40"/>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="39"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="41"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="40"/>
     </row>
     <row r="54" spans="1:20">
-      <c r="A54" s="39"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="41"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="40"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="39"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="41"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="40"/>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="39"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="41"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="40"/>
     </row>
     <row r="57" spans="1:20" ht="15" thickBot="1">
-      <c r="A57" s="39"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="41"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="40"/>
     </row>
     <row r="58" spans="1:20" ht="87">
       <c r="A58" s="7">
@@ -3217,39 +3338,39 @@
       <c r="E58" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F58" s="83" t="s">
+      <c r="F58" s="80" t="s">
         <v>103</v>
       </c>
       <c r="G58" s="15"/>
-      <c r="H58" s="40">
+      <c r="H58" s="39">
         <v>13</v>
       </c>
-      <c r="I58" s="40" t="s">
+      <c r="I58" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J58" s="49" t="s">
+      <c r="J58" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="K58" s="49"/>
-      <c r="L58" s="51" t="s">
+      <c r="K58" s="48"/>
+      <c r="L58" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="M58" s="42" t="s">
+      <c r="M58" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="N58" s="40">
+      <c r="N58" s="39">
         <v>5</v>
       </c>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="62" t="s">
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="61" t="s">
         <v>110</v>
       </c>
       <c r="S58" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="T58" s="63">
+      <c r="T58" s="62">
         <v>1</v>
       </c>
     </row>
@@ -3269,23 +3390,23 @@
       <c r="E59" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F59" s="86" t="s">
+      <c r="F59" s="83" t="s">
         <v>96</v>
       </c>
       <c r="G59" s="5"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="51"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="41"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="40"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="2">
@@ -3303,127 +3424,143 @@
       <c r="E60" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F60" s="86" t="s">
+      <c r="F60" s="83" t="s">
         <v>94</v>
       </c>
       <c r="G60" s="5"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="41"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="40"/>
     </row>
     <row r="61" spans="1:20" ht="15" thickBot="1">
-      <c r="A61" s="31"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="35" t="s">
+      <c r="A61" s="30">
+        <v>7</v>
+      </c>
+      <c r="B61" s="122">
+        <v>2</v>
+      </c>
+      <c r="C61" s="31">
+        <v>1</v>
+      </c>
+      <c r="D61" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F61" s="84" t="s">
+      <c r="F61" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="G61" s="93"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="41"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="40"/>
     </row>
     <row r="62" spans="1:20" ht="15" thickBot="1">
-      <c r="A62" s="74"/>
-      <c r="B62" s="75"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="76" t="s">
+      <c r="A62" s="71">
+        <v>1</v>
+      </c>
+      <c r="B62" s="72">
+        <v>3</v>
+      </c>
+      <c r="C62" s="72">
+        <v>1</v>
+      </c>
+      <c r="D62" s="123" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="F62" s="89" t="s">
+      <c r="F62" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="G62" s="97">
+      <c r="G62" s="93">
         <v>21131</v>
       </c>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="51"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="41"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="40"/>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="39"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="41"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="40"/>
     </row>
     <row r="64" spans="1:20" ht="58.5" thickBot="1">
-      <c r="A64" s="39"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="H64" s="40">
+      <c r="A64" s="38"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="H64" s="39">
         <v>14</v>
       </c>
-      <c r="I64" s="40" t="s">
+      <c r="I64" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="J64" s="49" t="s">
+      <c r="J64" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K64" s="49"/>
-      <c r="L64" s="51" t="s">
+      <c r="K64" s="48"/>
+      <c r="L64" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="M64" s="39"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="41"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="40"/>
     </row>
     <row r="65" spans="1:20" ht="87">
       <c r="A65" s="7">
@@ -3441,39 +3578,39 @@
       <c r="E65" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F65" s="83" t="s">
+      <c r="F65" s="80" t="s">
         <v>103</v>
       </c>
       <c r="G65" s="15"/>
-      <c r="H65" s="40">
+      <c r="H65" s="39">
         <v>14</v>
       </c>
-      <c r="I65" s="40" t="s">
+      <c r="I65" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="J65" s="49" t="s">
+      <c r="J65" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="K65" s="49"/>
-      <c r="L65" s="52" t="s">
+      <c r="K65" s="48"/>
+      <c r="L65" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="M65" s="42" t="s">
+      <c r="M65" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="N65" s="40">
+      <c r="N65" s="39">
         <v>6</v>
       </c>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="62" t="s">
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="61" t="s">
         <v>110</v>
       </c>
       <c r="S65" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="T65" s="63">
+      <c r="T65" s="62">
         <v>1</v>
       </c>
     </row>
@@ -3493,23 +3630,23 @@
       <c r="E66" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F66" s="86" t="s">
+      <c r="F66" s="83" t="s">
         <v>96</v>
       </c>
       <c r="G66" s="5"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="51"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="41"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="40"/>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="2">
@@ -3527,192 +3664,216 @@
       <c r="E67" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F67" s="86" t="s">
+      <c r="F67" s="83" t="s">
         <v>94</v>
       </c>
       <c r="G67" s="5"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="51"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="40"/>
-      <c r="T67" s="41"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="40"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1">
-      <c r="A68" s="31"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="35" t="s">
+      <c r="A68" s="30">
+        <v>7</v>
+      </c>
+      <c r="B68" s="122">
+        <v>2</v>
+      </c>
+      <c r="C68" s="31">
+        <v>1</v>
+      </c>
+      <c r="D68" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F68" s="84" t="s">
+      <c r="F68" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="G68" s="68"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
-      <c r="L68" s="51"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="41"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="40"/>
     </row>
     <row r="69" spans="1:20">
-      <c r="A69" s="77"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="78"/>
-      <c r="E69" s="79" t="s">
+      <c r="A69" s="74">
+        <v>1</v>
+      </c>
+      <c r="B69" s="75">
+        <v>3</v>
+      </c>
+      <c r="C69" s="75">
+        <v>1</v>
+      </c>
+      <c r="D69" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="F69" s="90" t="s">
+      <c r="F69" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="G69" s="80">
+      <c r="G69" s="77">
         <v>21131</v>
       </c>
-      <c r="H69" s="40"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="41"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="40"/>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1">
-      <c r="A70" s="31"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32" t="s">
+      <c r="A70" s="30">
+        <v>2</v>
+      </c>
+      <c r="B70" s="31">
+        <v>3</v>
+      </c>
+      <c r="C70" s="31">
+        <v>4</v>
+      </c>
+      <c r="D70" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F70" s="91" t="s">
+      <c r="F70" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="G70" s="36">
+      <c r="G70" s="35">
         <v>15131</v>
       </c>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="49"/>
-      <c r="L70" s="51"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="40"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
-      <c r="T70" s="41"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="40"/>
     </row>
     <row r="71" spans="1:20" ht="43.5">
-      <c r="A71" s="39"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="H71" s="40">
+      <c r="A71" s="38"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="H71" s="39">
         <v>15</v>
       </c>
-      <c r="I71" s="40" t="s">
+      <c r="I71" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J71" s="49" t="s">
+      <c r="J71" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="K71" s="49"/>
-      <c r="L71" s="51" t="s">
+      <c r="K71" s="48"/>
+      <c r="L71" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="M71" s="39"/>
-      <c r="N71" s="40"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="41"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="40"/>
     </row>
     <row r="72" spans="1:20">
-      <c r="A72" s="39"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="H72" s="40">
+      <c r="A72" s="38"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="H72" s="39">
         <v>16</v>
       </c>
-      <c r="I72" s="40" t="s">
+      <c r="I72" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J72" s="49" t="s">
+      <c r="J72" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="K72" s="49"/>
-      <c r="L72" s="51" t="s">
+      <c r="K72" s="48"/>
+      <c r="L72" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M72" s="39"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="40"/>
-      <c r="S72" s="40"/>
-      <c r="T72" s="41"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="40"/>
     </row>
     <row r="73" spans="1:20" ht="73" thickBot="1">
-      <c r="A73" s="39"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="H73" s="40">
+      <c r="A73" s="38"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="H73" s="39">
         <v>17</v>
       </c>
-      <c r="I73" s="40" t="s">
+      <c r="I73" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J73" s="49" t="s">
+      <c r="J73" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="K73" s="49"/>
-      <c r="L73" s="51" t="s">
+      <c r="K73" s="48"/>
+      <c r="L73" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="M73" s="39"/>
-      <c r="N73" s="40"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="41"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="40"/>
     </row>
     <row r="74" spans="1:20" ht="87">
       <c r="A74" s="7">
@@ -3730,39 +3891,39 @@
       <c r="E74" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F74" s="83" t="s">
+      <c r="F74" s="80" t="s">
         <v>103</v>
       </c>
       <c r="G74" s="15"/>
-      <c r="H74" s="40">
+      <c r="H74" s="39">
         <v>18</v>
       </c>
-      <c r="I74" s="40" t="s">
+      <c r="I74" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J74" s="49" t="s">
+      <c r="J74" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="K74" s="49"/>
-      <c r="L74" s="52" t="s">
+      <c r="K74" s="48"/>
+      <c r="L74" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M74" s="42" t="s">
+      <c r="M74" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="N74" s="40">
+      <c r="N74" s="39">
         <v>6</v>
       </c>
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40"/>
-      <c r="R74" s="62" t="s">
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="61" t="s">
         <v>110</v>
       </c>
       <c r="S74" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="T74" s="63">
+      <c r="T74" s="62">
         <v>1</v>
       </c>
     </row>
@@ -3782,23 +3943,23 @@
       <c r="E75" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="86" t="s">
+      <c r="F75" s="83" t="s">
         <v>96</v>
       </c>
       <c r="G75" s="5"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="49"/>
-      <c r="K75" s="49"/>
-      <c r="L75" s="52"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="40"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="40"/>
-      <c r="T75" s="41"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="48"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="40"/>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="2">
@@ -3816,250 +3977,274 @@
       <c r="E76" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F76" s="86" t="s">
+      <c r="F76" s="83" t="s">
         <v>94</v>
       </c>
       <c r="G76" s="5"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="49"/>
-      <c r="K76" s="49"/>
-      <c r="L76" s="52"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="41"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="48"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="40"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1">
-      <c r="A77" s="31"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="35" t="s">
+      <c r="A77" s="30">
+        <v>7</v>
+      </c>
+      <c r="B77" s="128">
+        <v>2</v>
+      </c>
+      <c r="C77" s="113">
+        <v>1</v>
+      </c>
+      <c r="D77" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="F77" s="84" t="s">
+      <c r="F77" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="G77" s="68"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="49"/>
-      <c r="K77" s="49"/>
-      <c r="L77" s="52"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="40"/>
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="40"/>
-      <c r="R77" s="40"/>
-      <c r="S77" s="40"/>
-      <c r="T77" s="41"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="48"/>
+      <c r="K77" s="48"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="39"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39"/>
+      <c r="T77" s="40"/>
     </row>
     <row r="78" spans="1:20">
-      <c r="A78" s="77"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="79" t="s">
+      <c r="A78" s="74">
+        <v>1</v>
+      </c>
+      <c r="B78" s="126">
+        <v>3</v>
+      </c>
+      <c r="C78" s="9">
+        <v>1</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="F78" s="90" t="s">
+      <c r="F78" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="G78" s="80">
+      <c r="G78" s="77">
         <v>21131</v>
       </c>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="52"/>
-      <c r="M78" s="39"/>
-      <c r="N78" s="40"/>
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="40"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="40"/>
-      <c r="T78" s="41"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="48"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="39"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="40"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1">
-      <c r="A79" s="31"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32" t="s">
+      <c r="A79" s="30">
+        <v>1</v>
+      </c>
+      <c r="B79" s="31">
+        <v>3</v>
+      </c>
+      <c r="C79" s="31">
+        <v>4</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F79" s="91" t="s">
+      <c r="F79" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="G79" s="36">
+      <c r="G79" s="35">
         <v>15131</v>
       </c>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="49"/>
-      <c r="K79" s="49"/>
-      <c r="L79" s="52"/>
-      <c r="M79" s="39"/>
-      <c r="N79" s="40"/>
-      <c r="O79" s="40"/>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="40"/>
-      <c r="R79" s="40"/>
-      <c r="S79" s="40"/>
-      <c r="T79" s="41"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="48"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="40"/>
     </row>
     <row r="80" spans="1:20" ht="29">
-      <c r="A80" s="39"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="H80" s="40">
+      <c r="A80" s="38"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="H80" s="39">
         <v>19</v>
       </c>
-      <c r="I80" s="40" t="s">
+      <c r="I80" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="J80" s="49" t="s">
+      <c r="J80" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="K80" s="49"/>
-      <c r="L80" s="51" t="s">
+      <c r="K80" s="48"/>
+      <c r="L80" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M80" s="39"/>
-      <c r="N80" s="40"/>
-      <c r="O80" s="40"/>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="40"/>
-      <c r="R80" s="40"/>
-      <c r="S80" s="40"/>
-      <c r="T80" s="41"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="39"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
+      <c r="S80" s="39"/>
+      <c r="T80" s="40"/>
     </row>
     <row r="81" spans="1:20" ht="29">
-      <c r="A81" s="39"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="40"/>
-      <c r="H81" s="40">
+      <c r="A81" s="38"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="H81" s="39">
         <v>19</v>
       </c>
-      <c r="I81" s="40" t="s">
+      <c r="I81" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="J81" s="49" t="s">
+      <c r="J81" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K81" s="49"/>
-      <c r="L81" s="51" t="s">
+      <c r="K81" s="48"/>
+      <c r="L81" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="M81" s="39"/>
-      <c r="N81" s="40"/>
-      <c r="O81" s="40"/>
-      <c r="P81" s="40"/>
-      <c r="Q81" s="40"/>
-      <c r="R81" s="40"/>
-      <c r="S81" s="40"/>
-      <c r="T81" s="41"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="39"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="39"/>
+      <c r="T81" s="40"/>
     </row>
     <row r="82" spans="1:20" ht="58">
-      <c r="A82" s="39"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="40"/>
-      <c r="F82" s="40"/>
-      <c r="H82" s="40">
+      <c r="A82" s="38"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="H82" s="39">
         <v>20</v>
       </c>
-      <c r="I82" s="40" t="s">
+      <c r="I82" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J82" s="49" t="s">
+      <c r="J82" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="K82" s="49"/>
-      <c r="L82" s="51" t="s">
+      <c r="K82" s="48"/>
+      <c r="L82" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="M82" s="39"/>
-      <c r="N82" s="40"/>
-      <c r="O82" s="40"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="40"/>
-      <c r="R82" s="40"/>
-      <c r="S82" s="40"/>
-      <c r="T82" s="41"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="39"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="39"/>
+      <c r="T82" s="40"/>
     </row>
     <row r="83" spans="1:20" ht="58">
-      <c r="A83" s="39"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="H83" s="40">
+      <c r="A83" s="38"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="H83" s="39">
         <v>20</v>
       </c>
-      <c r="I83" s="40" t="s">
+      <c r="I83" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="J83" s="49" t="s">
+      <c r="J83" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="K83" s="49"/>
-      <c r="L83" s="51" t="s">
+      <c r="K83" s="48"/>
+      <c r="L83" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="M83" s="39"/>
-      <c r="N83" s="40"/>
-      <c r="O83" s="40"/>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="40"/>
-      <c r="R83" s="40"/>
-      <c r="S83" s="40"/>
-      <c r="T83" s="41"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="39"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="39"/>
+      <c r="T83" s="40"/>
     </row>
     <row r="84" spans="1:20" ht="58.5" thickBot="1">
-      <c r="A84" s="39"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="H84" s="40">
+      <c r="A84" s="38"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="H84" s="39">
         <v>20</v>
       </c>
-      <c r="I84" s="40" t="s">
+      <c r="I84" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="J84" s="49" t="s">
+      <c r="J84" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="K84" s="49"/>
-      <c r="L84" s="51" t="s">
+      <c r="K84" s="48"/>
+      <c r="L84" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="M84" s="39"/>
-      <c r="N84" s="40"/>
-      <c r="O84" s="40"/>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="40"/>
-      <c r="R84" s="40"/>
-      <c r="S84" s="40"/>
-      <c r="T84" s="41"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="39"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="40"/>
     </row>
     <row r="85" spans="1:20" ht="87">
       <c r="A85" s="7">
@@ -4077,39 +4262,39 @@
       <c r="E85" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F85" s="83" t="s">
+      <c r="F85" s="80" t="s">
         <v>103</v>
       </c>
       <c r="G85" s="15"/>
-      <c r="H85" s="40">
+      <c r="H85" s="39">
         <v>20</v>
       </c>
-      <c r="I85" s="40" t="s">
+      <c r="I85" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="J85" s="49" t="s">
+      <c r="J85" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="K85" s="49"/>
-      <c r="L85" s="52" t="s">
+      <c r="K85" s="48"/>
+      <c r="L85" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="M85" s="42" t="s">
+      <c r="M85" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="N85" s="40">
-        <v>1</v>
-      </c>
-      <c r="O85" s="40"/>
-      <c r="P85" s="40"/>
-      <c r="Q85" s="40"/>
-      <c r="R85" s="62" t="s">
+      <c r="N85" s="39">
+        <v>1</v>
+      </c>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
+      <c r="Q85" s="39"/>
+      <c r="R85" s="61" t="s">
         <v>110</v>
       </c>
       <c r="S85" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="T85" s="63">
+      <c r="T85" s="62">
         <v>1</v>
       </c>
     </row>
@@ -4129,23 +4314,23 @@
       <c r="E86" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F86" s="86" t="s">
+      <c r="F86" s="83" t="s">
         <v>96</v>
       </c>
       <c r="G86" s="5"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="49"/>
-      <c r="K86" s="49"/>
-      <c r="L86" s="51"/>
-      <c r="M86" s="39"/>
-      <c r="N86" s="40"/>
-      <c r="O86" s="40"/>
-      <c r="P86" s="40"/>
-      <c r="Q86" s="40"/>
-      <c r="R86" s="40"/>
-      <c r="S86" s="40"/>
-      <c r="T86" s="41"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="50"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="39"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
+      <c r="Q86" s="39"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="39"/>
+      <c r="T86" s="40"/>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="2">
@@ -4163,168 +4348,184 @@
       <c r="E87" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F87" s="86" t="s">
+      <c r="F87" s="83" t="s">
         <v>94</v>
       </c>
       <c r="G87" s="5"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="49"/>
-      <c r="K87" s="49"/>
-      <c r="L87" s="51"/>
-      <c r="M87" s="39"/>
-      <c r="N87" s="40"/>
-      <c r="O87" s="40"/>
-      <c r="P87" s="40"/>
-      <c r="Q87" s="40"/>
-      <c r="R87" s="40"/>
-      <c r="S87" s="40"/>
-      <c r="T87" s="41"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="48"/>
+      <c r="L87" s="50"/>
+      <c r="M87" s="38"/>
+      <c r="N87" s="39"/>
+      <c r="O87" s="39"/>
+      <c r="P87" s="39"/>
+      <c r="Q87" s="39"/>
+      <c r="R87" s="39"/>
+      <c r="S87" s="39"/>
+      <c r="T87" s="40"/>
     </row>
     <row r="88" spans="1:20">
-      <c r="A88" s="34"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="33" t="s">
+      <c r="A88" s="33">
+        <v>7</v>
+      </c>
+      <c r="B88" s="6">
+        <v>2</v>
+      </c>
+      <c r="C88" s="4">
+        <v>1</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E88" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F88" s="86" t="s">
+      <c r="F88" s="83" t="s">
         <v>98</v>
       </c>
       <c r="G88" s="5"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="49"/>
-      <c r="K88" s="49"/>
-      <c r="L88" s="51"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="40"/>
-      <c r="O88" s="40"/>
-      <c r="P88" s="40"/>
-      <c r="Q88" s="40"/>
-      <c r="R88" s="40"/>
-      <c r="S88" s="40"/>
-      <c r="T88" s="41"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="50"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="39"/>
+      <c r="T88" s="40"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1">
-      <c r="A89" s="31"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="35" t="s">
+      <c r="A89" s="30">
+        <v>8</v>
+      </c>
+      <c r="B89" s="11">
+        <v>2</v>
+      </c>
+      <c r="C89" s="12">
+        <v>1</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E89" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F89" s="91" t="s">
+      <c r="F89" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="G89" s="36">
+      <c r="G89" s="35">
         <v>12140</v>
       </c>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="49"/>
-      <c r="K89" s="49"/>
-      <c r="L89" s="51"/>
-      <c r="M89" s="39"/>
-      <c r="N89" s="40"/>
-      <c r="O89" s="40"/>
-      <c r="P89" s="40"/>
-      <c r="Q89" s="40"/>
-      <c r="R89" s="40"/>
-      <c r="S89" s="40"/>
-      <c r="T89" s="41"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="48"/>
+      <c r="K89" s="48"/>
+      <c r="L89" s="50"/>
+      <c r="M89" s="38"/>
+      <c r="N89" s="39"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="40"/>
     </row>
     <row r="90" spans="1:20">
-      <c r="A90" s="39"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="49"/>
-      <c r="K90" s="49"/>
-      <c r="L90" s="51"/>
-      <c r="M90" s="39"/>
-      <c r="N90" s="40"/>
-      <c r="O90" s="40"/>
-      <c r="P90" s="40"/>
-      <c r="Q90" s="40"/>
-      <c r="R90" s="40"/>
-      <c r="S90" s="40"/>
-      <c r="T90" s="41"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="48"/>
+      <c r="L90" s="50"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
+      <c r="T90" s="40"/>
     </row>
     <row r="91" spans="1:20">
-      <c r="A91" s="39"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="40"/>
-      <c r="H91" s="40"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="49"/>
-      <c r="K91" s="49"/>
-      <c r="L91" s="51"/>
-      <c r="M91" s="39"/>
-      <c r="N91" s="40"/>
-      <c r="O91" s="40"/>
-      <c r="P91" s="40"/>
-      <c r="Q91" s="40"/>
-      <c r="R91" s="40"/>
-      <c r="S91" s="40"/>
-      <c r="T91" s="41"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="48"/>
+      <c r="L91" s="50"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="40"/>
     </row>
     <row r="92" spans="1:20">
-      <c r="A92" s="39"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="40"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="49"/>
-      <c r="K92" s="49"/>
-      <c r="L92" s="51"/>
-      <c r="M92" s="39"/>
-      <c r="N92" s="40"/>
-      <c r="O92" s="40"/>
-      <c r="P92" s="40"/>
-      <c r="Q92" s="40"/>
-      <c r="R92" s="40"/>
-      <c r="S92" s="40"/>
-      <c r="T92" s="41"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="50"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="39"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
+      <c r="Q92" s="39"/>
+      <c r="R92" s="39"/>
+      <c r="S92" s="39"/>
+      <c r="T92" s="40"/>
     </row>
     <row r="93" spans="1:20" ht="58.5" thickBot="1">
-      <c r="A93" s="43"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44">
+      <c r="A93" s="42"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43">
         <v>100</v>
       </c>
-      <c r="I93" s="44"/>
-      <c r="J93" s="54" t="s">
+      <c r="I93" s="43"/>
+      <c r="J93" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="K93" s="54"/>
-      <c r="L93" s="55" t="s">
+      <c r="K93" s="53"/>
+      <c r="L93" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="M93" s="43"/>
-      <c r="N93" s="44"/>
-      <c r="O93" s="44"/>
-      <c r="P93" s="44"/>
-      <c r="Q93" s="44"/>
-      <c r="R93" s="44"/>
-      <c r="S93" s="44"/>
-      <c r="T93" s="45"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="43"/>
+      <c r="O93" s="43"/>
+      <c r="P93" s="43"/>
+      <c r="Q93" s="43"/>
+      <c r="R93" s="43"/>
+      <c r="S93" s="43"/>
+      <c r="T93" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/datenRF4/AFL/i=23,28, Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L2_S4_i23_Fremdlüfter.xlsx
+++ b/datenRF4/AFL/i=23,28, Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L2_S4_i23_Fremdlüfter.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liria\Desktop\HiWi\testing\BOM\datenRF4\AFL\i=23,28, Fremdlüfter, Abtriebswelle=14\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772F58F9-B8BE-4579-836A-59518BA713E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variante 1" sheetId="5" r:id="rId1"/>
@@ -430,8 +436,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1053,6 +1059,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1092,48 +1137,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1437,80 +1443,76 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="38.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" customWidth="1"/>
-    <col min="11" max="11" width="24.1796875" customWidth="1"/>
-    <col min="12" max="12" width="37.90625" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" customWidth="1"/>
-    <col min="14" max="14" width="15.26953125" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" customWidth="1"/>
-    <col min="16" max="16" width="12.36328125" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="38.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="12" max="12" width="37.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="15" width="15.21875" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="122" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
       <c r="G1" s="89"/>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="95" t="s">
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1">
-      <c r="A2" s="97" t="s">
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="99" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="105" t="s">
+      <c r="D2" s="121"/>
+      <c r="E2" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="107"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="128"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
@@ -1525,7 +1527,7 @@
       <c r="S2" s="23"/>
       <c r="T2" s="23"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>65</v>
       </c>
@@ -1587,7 +1589,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="46" customHeight="1" thickBot="1">
+    <row r="4" spans="1:20" ht="46.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="36"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -1620,7 +1622,7 @@
       </c>
       <c r="T4" s="58"/>
     </row>
-    <row r="5" spans="1:20" ht="87">
+    <row r="5" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>5</v>
       </c>
@@ -1672,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1">
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>6</v>
       </c>
@@ -1706,11 +1708,11 @@
       <c r="S6" s="45"/>
       <c r="T6" s="60"/>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="108">
+      <c r="B7" s="95">
         <v>3</v>
       </c>
       <c r="C7" s="17">
@@ -1742,7 +1744,7 @@
       <c r="S7" s="45"/>
       <c r="T7" s="60"/>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1">
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -1771,7 +1773,7 @@
       <c r="S8" s="45"/>
       <c r="T8" s="60"/>
     </row>
-    <row r="9" spans="1:20" ht="101.5">
+    <row r="9" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -1823,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -1857,7 +1859,7 @@
       <c r="S10" s="39"/>
       <c r="T10" s="40"/>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1">
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>6</v>
       </c>
@@ -1891,11 +1893,11 @@
       <c r="S11" s="39"/>
       <c r="T11" s="40"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="67">
         <v>1</v>
       </c>
-      <c r="B12" s="109">
+      <c r="B12" s="96">
         <v>3</v>
       </c>
       <c r="C12" s="68">
@@ -1927,11 +1929,11 @@
       <c r="S12" s="39"/>
       <c r="T12" s="40"/>
     </row>
-    <row r="13" spans="1:20" ht="29.5" thickBot="1">
+    <row r="13" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="121">
+      <c r="B13" s="108">
         <v>3</v>
       </c>
       <c r="C13" s="12">
@@ -1963,7 +1965,7 @@
       <c r="S13" s="39"/>
       <c r="T13" s="40"/>
     </row>
-    <row r="14" spans="1:20" ht="101.5">
+    <row r="14" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -1992,7 +1994,7 @@
       <c r="S14" s="39"/>
       <c r="T14" s="40"/>
     </row>
-    <row r="15" spans="1:20" ht="87">
+    <row r="15" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -2021,7 +2023,7 @@
       <c r="S15" s="39"/>
       <c r="T15" s="40"/>
     </row>
-    <row r="16" spans="1:20" ht="72.5">
+    <row r="16" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -2050,7 +2052,7 @@
       <c r="S16" s="39"/>
       <c r="T16" s="40"/>
     </row>
-    <row r="17" spans="1:20" ht="29">
+    <row r="17" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -2079,7 +2081,7 @@
       <c r="S17" s="39"/>
       <c r="T17" s="40"/>
     </row>
-    <row r="18" spans="1:20" ht="29">
+    <row r="18" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -2108,7 +2110,7 @@
       <c r="S18" s="39"/>
       <c r="T18" s="40"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -2129,7 +2131,7 @@
       <c r="S19" s="39"/>
       <c r="T19" s="40"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -2150,7 +2152,7 @@
       <c r="S20" s="39"/>
       <c r="T20" s="40"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -2171,7 +2173,7 @@
       <c r="S21" s="39"/>
       <c r="T21" s="40"/>
     </row>
-    <row r="22" spans="1:20" ht="15" thickBot="1">
+    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="38"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -2192,7 +2194,7 @@
       <c r="S22" s="39"/>
       <c r="T22" s="40"/>
     </row>
-    <row r="23" spans="1:20" ht="87">
+    <row r="23" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>1</v>
       </c>
@@ -2244,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -2278,7 +2280,7 @@
       <c r="S24" s="39"/>
       <c r="T24" s="40"/>
     </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1">
+    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>6</v>
       </c>
@@ -2312,11 +2314,11 @@
       <c r="S25" s="39"/>
       <c r="T25" s="40"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="67">
         <v>1</v>
       </c>
-      <c r="B26" s="109">
+      <c r="B26" s="96">
         <v>3</v>
       </c>
       <c r="C26" s="68">
@@ -2348,11 +2350,11 @@
       <c r="S26" s="39"/>
       <c r="T26" s="40"/>
     </row>
-    <row r="27" spans="1:20" ht="29.5" thickBot="1">
+    <row r="27" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>2</v>
       </c>
-      <c r="B27" s="109">
+      <c r="B27" s="96">
         <v>3</v>
       </c>
       <c r="C27" s="12">
@@ -2384,7 +2386,7 @@
       <c r="S27" s="39"/>
       <c r="T27" s="40"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -2405,7 +2407,7 @@
       <c r="S28" s="39"/>
       <c r="T28" s="40"/>
     </row>
-    <row r="29" spans="1:20" ht="29">
+    <row r="29" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="38"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -2434,7 +2436,7 @@
       <c r="S29" s="39"/>
       <c r="T29" s="40"/>
     </row>
-    <row r="30" spans="1:20" ht="29">
+    <row r="30" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="38"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -2463,7 +2465,7 @@
       <c r="S30" s="39"/>
       <c r="T30" s="40"/>
     </row>
-    <row r="31" spans="1:20" ht="29">
+    <row r="31" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="41"/>
       <c r="B31" s="19"/>
       <c r="C31" s="18"/>
@@ -2493,7 +2495,7 @@
       <c r="S31" s="39"/>
       <c r="T31" s="40"/>
     </row>
-    <row r="32" spans="1:20" ht="44" thickBot="1">
+    <row r="32" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="38"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -2522,7 +2524,7 @@
       <c r="S32" s="39"/>
       <c r="T32" s="40"/>
     </row>
-    <row r="33" spans="1:20" ht="87">
+    <row r="33" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>1</v>
       </c>
@@ -2574,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>5</v>
       </c>
@@ -2608,26 +2610,26 @@
       <c r="S34" s="39"/>
       <c r="T34" s="40"/>
     </row>
-    <row r="35" spans="1:20" ht="15" thickBot="1">
-      <c r="A35" s="111">
+    <row r="35" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="98">
         <v>6</v>
       </c>
-      <c r="B35" s="112">
+      <c r="B35" s="99">
         <v>2</v>
       </c>
-      <c r="C35" s="113">
-        <v>1</v>
-      </c>
-      <c r="D35" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="114" t="s">
+      <c r="C35" s="100">
+        <v>1</v>
+      </c>
+      <c r="D35" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="115" t="s">
+      <c r="F35" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="116"/>
+      <c r="G35" s="103"/>
       <c r="H35" s="39"/>
       <c r="I35" s="39"/>
       <c r="J35" s="48"/>
@@ -2642,11 +2644,11 @@
       <c r="S35" s="39"/>
       <c r="T35" s="40"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>1</v>
       </c>
-      <c r="B36" s="117">
+      <c r="B36" s="104">
         <v>3</v>
       </c>
       <c r="C36" s="9">
@@ -2655,13 +2657,13 @@
       <c r="D36" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="118" t="s">
+      <c r="E36" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="119" t="s">
+      <c r="F36" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="120">
+      <c r="G36" s="107">
         <v>23355</v>
       </c>
       <c r="H36" s="39"/>
@@ -2678,11 +2680,11 @@
       <c r="S36" s="39"/>
       <c r="T36" s="40"/>
     </row>
-    <row r="37" spans="1:20" ht="15" thickBot="1">
+    <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>2</v>
       </c>
-      <c r="B37" s="110">
+      <c r="B37" s="97">
         <v>3</v>
       </c>
       <c r="C37" s="31">
@@ -2714,7 +2716,7 @@
       <c r="S37" s="39"/>
       <c r="T37" s="40"/>
     </row>
-    <row r="38" spans="1:20" ht="15" thickBot="1">
+    <row r="38" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="38"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
@@ -2735,7 +2737,7 @@
       <c r="S38" s="39"/>
       <c r="T38" s="40"/>
     </row>
-    <row r="39" spans="1:20" ht="58">
+    <row r="39" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>1</v>
       </c>
@@ -2783,7 +2785,7 @@
       </c>
       <c r="T39" s="40"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -2817,7 +2819,7 @@
       <c r="S40" s="39"/>
       <c r="T40" s="40"/>
     </row>
-    <row r="41" spans="1:20" ht="15" thickBot="1">
+    <row r="41" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>6</v>
       </c>
@@ -2851,11 +2853,11 @@
       <c r="S41" s="39"/>
       <c r="T41" s="40"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="67">
         <v>1</v>
       </c>
-      <c r="B42" s="109">
+      <c r="B42" s="96">
         <v>3</v>
       </c>
       <c r="C42" s="68">
@@ -2887,11 +2889,11 @@
       <c r="S42" s="39"/>
       <c r="T42" s="40"/>
     </row>
-    <row r="43" spans="1:20" ht="15" thickBot="1">
+    <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>2</v>
       </c>
-      <c r="B43" s="121">
+      <c r="B43" s="108">
         <v>3</v>
       </c>
       <c r="C43" s="31">
@@ -2923,7 +2925,7 @@
       <c r="S43" s="39"/>
       <c r="T43" s="40"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -2944,7 +2946,7 @@
       <c r="S44" s="39"/>
       <c r="T44" s="40"/>
     </row>
-    <row r="45" spans="1:20" ht="29">
+    <row r="45" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -2973,7 +2975,7 @@
       <c r="S45" s="39"/>
       <c r="T45" s="40"/>
     </row>
-    <row r="46" spans="1:20" ht="73" thickBot="1">
+    <row r="46" spans="1:20" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="38"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -3002,7 +3004,7 @@
       <c r="S46" s="39"/>
       <c r="T46" s="40"/>
     </row>
-    <row r="47" spans="1:20" ht="58">
+    <row r="47" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>1</v>
       </c>
@@ -3056,7 +3058,7 @@
       </c>
       <c r="T47" s="40"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>5</v>
       </c>
@@ -3090,7 +3092,7 @@
       <c r="S48" s="39"/>
       <c r="T48" s="40"/>
     </row>
-    <row r="49" spans="1:20" ht="15" thickBot="1">
+    <row r="49" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -3124,11 +3126,11 @@
       <c r="S49" s="39"/>
       <c r="T49" s="40"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="67">
         <v>1</v>
       </c>
-      <c r="B50" s="109">
+      <c r="B50" s="96">
         <v>3</v>
       </c>
       <c r="C50" s="68">
@@ -3160,11 +3162,11 @@
       <c r="S50" s="39"/>
       <c r="T50" s="40"/>
     </row>
-    <row r="51" spans="1:20" ht="15" thickBot="1">
+    <row r="51" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>2</v>
       </c>
-      <c r="B51" s="110">
+      <c r="B51" s="97">
         <v>3</v>
       </c>
       <c r="C51" s="31">
@@ -3196,7 +3198,7 @@
       <c r="S51" s="39"/>
       <c r="T51" s="40"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="38"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
@@ -3217,7 +3219,7 @@
       <c r="S52" s="39"/>
       <c r="T52" s="40"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="38"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
@@ -3238,7 +3240,7 @@
       <c r="S53" s="39"/>
       <c r="T53" s="40"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="38"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
@@ -3259,7 +3261,7 @@
       <c r="S54" s="39"/>
       <c r="T54" s="40"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="38"/>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
@@ -3280,7 +3282,7 @@
       <c r="S55" s="39"/>
       <c r="T55" s="40"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="38"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -3301,7 +3303,7 @@
       <c r="S56" s="39"/>
       <c r="T56" s="40"/>
     </row>
-    <row r="57" spans="1:20" ht="15" thickBot="1">
+    <row r="57" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="38"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -3322,7 +3324,7 @@
       <c r="S57" s="39"/>
       <c r="T57" s="40"/>
     </row>
-    <row r="58" spans="1:20" ht="87">
+    <row r="58" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>1</v>
       </c>
@@ -3374,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>5</v>
       </c>
@@ -3408,7 +3410,7 @@
       <c r="S59" s="39"/>
       <c r="T59" s="40"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>6</v>
       </c>
@@ -3442,11 +3444,11 @@
       <c r="S60" s="39"/>
       <c r="T60" s="40"/>
     </row>
-    <row r="61" spans="1:20" ht="15" thickBot="1">
+    <row r="61" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="30">
         <v>7</v>
       </c>
-      <c r="B61" s="122">
+      <c r="B61" s="109">
         <v>2</v>
       </c>
       <c r="C61" s="31">
@@ -3476,7 +3478,7 @@
       <c r="S61" s="39"/>
       <c r="T61" s="40"/>
     </row>
-    <row r="62" spans="1:20" ht="15" thickBot="1">
+    <row r="62" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="71">
         <v>1</v>
       </c>
@@ -3486,7 +3488,7 @@
       <c r="C62" s="72">
         <v>1</v>
       </c>
-      <c r="D62" s="123" t="s">
+      <c r="D62" s="110" t="s">
         <v>71</v>
       </c>
       <c r="E62" s="73" t="s">
@@ -3512,7 +3514,7 @@
       <c r="S62" s="39"/>
       <c r="T62" s="40"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="38"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -3533,7 +3535,7 @@
       <c r="S63" s="39"/>
       <c r="T63" s="40"/>
     </row>
-    <row r="64" spans="1:20" ht="58.5" thickBot="1">
+    <row r="64" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="38"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -3562,7 +3564,7 @@
       <c r="S64" s="39"/>
       <c r="T64" s="40"/>
     </row>
-    <row r="65" spans="1:20" ht="87">
+    <row r="65" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>1</v>
       </c>
@@ -3614,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>5</v>
       </c>
@@ -3648,7 +3650,7 @@
       <c r="S66" s="39"/>
       <c r="T66" s="40"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>6</v>
       </c>
@@ -3682,11 +3684,11 @@
       <c r="S67" s="39"/>
       <c r="T67" s="40"/>
     </row>
-    <row r="68" spans="1:20" ht="15" thickBot="1">
+    <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="30">
         <v>7</v>
       </c>
-      <c r="B68" s="122">
+      <c r="B68" s="109">
         <v>2</v>
       </c>
       <c r="C68" s="31">
@@ -3716,7 +3718,7 @@
       <c r="S68" s="39"/>
       <c r="T68" s="40"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="74">
         <v>1</v>
       </c>
@@ -3726,7 +3728,7 @@
       <c r="C69" s="75">
         <v>1</v>
       </c>
-      <c r="D69" s="124" t="s">
+      <c r="D69" s="111" t="s">
         <v>71</v>
       </c>
       <c r="E69" s="76" t="s">
@@ -3752,7 +3754,7 @@
       <c r="S69" s="39"/>
       <c r="T69" s="40"/>
     </row>
-    <row r="70" spans="1:20" ht="15" thickBot="1">
+    <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="30">
         <v>2</v>
       </c>
@@ -3788,7 +3790,7 @@
       <c r="S70" s="39"/>
       <c r="T70" s="40"/>
     </row>
-    <row r="71" spans="1:20" ht="43.5">
+    <row r="71" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="38"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
@@ -3817,7 +3819,7 @@
       <c r="S71" s="39"/>
       <c r="T71" s="40"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="38"/>
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
@@ -3846,7 +3848,7 @@
       <c r="S72" s="39"/>
       <c r="T72" s="40"/>
     </row>
-    <row r="73" spans="1:20" ht="73" thickBot="1">
+    <row r="73" spans="1:20" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="38"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
@@ -3875,7 +3877,7 @@
       <c r="S73" s="39"/>
       <c r="T73" s="40"/>
     </row>
-    <row r="74" spans="1:20" ht="87">
+    <row r="74" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>1</v>
       </c>
@@ -3927,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>5</v>
       </c>
@@ -3961,7 +3963,7 @@
       <c r="S75" s="39"/>
       <c r="T75" s="40"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>6</v>
       </c>
@@ -3995,20 +3997,20 @@
       <c r="S76" s="39"/>
       <c r="T76" s="40"/>
     </row>
-    <row r="77" spans="1:20" ht="15" thickBot="1">
+    <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="30">
         <v>7</v>
       </c>
-      <c r="B77" s="128">
+      <c r="B77" s="115">
         <v>2</v>
       </c>
-      <c r="C77" s="113">
-        <v>1</v>
-      </c>
-      <c r="D77" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="E77" s="125" t="s">
+      <c r="C77" s="100">
+        <v>1</v>
+      </c>
+      <c r="D77" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77" s="112" t="s">
         <v>88</v>
       </c>
       <c r="F77" s="81" t="s">
@@ -4029,11 +4031,11 @@
       <c r="S77" s="39"/>
       <c r="T77" s="40"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="74">
         <v>1</v>
       </c>
-      <c r="B78" s="126">
+      <c r="B78" s="113">
         <v>3</v>
       </c>
       <c r="C78" s="9">
@@ -4042,7 +4044,7 @@
       <c r="D78" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E78" s="127" t="s">
+      <c r="E78" s="114" t="s">
         <v>89</v>
       </c>
       <c r="F78" s="87" t="s">
@@ -4065,7 +4067,7 @@
       <c r="S78" s="39"/>
       <c r="T78" s="40"/>
     </row>
-    <row r="79" spans="1:20" ht="15" thickBot="1">
+    <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="30">
         <v>1</v>
       </c>
@@ -4101,7 +4103,7 @@
       <c r="S79" s="39"/>
       <c r="T79" s="40"/>
     </row>
-    <row r="80" spans="1:20" ht="29">
+    <row r="80" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="38"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -4130,7 +4132,7 @@
       <c r="S80" s="39"/>
       <c r="T80" s="40"/>
     </row>
-    <row r="81" spans="1:20" ht="29">
+    <row r="81" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="38"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -4159,7 +4161,7 @@
       <c r="S81" s="39"/>
       <c r="T81" s="40"/>
     </row>
-    <row r="82" spans="1:20" ht="58">
+    <row r="82" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="38"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -4188,7 +4190,7 @@
       <c r="S82" s="39"/>
       <c r="T82" s="40"/>
     </row>
-    <row r="83" spans="1:20" ht="58">
+    <row r="83" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="38"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -4217,7 +4219,7 @@
       <c r="S83" s="39"/>
       <c r="T83" s="40"/>
     </row>
-    <row r="84" spans="1:20" ht="58.5" thickBot="1">
+    <row r="84" spans="1:20" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="38"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -4246,7 +4248,7 @@
       <c r="S84" s="39"/>
       <c r="T84" s="40"/>
     </row>
-    <row r="85" spans="1:20" ht="87">
+    <row r="85" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>1</v>
       </c>
@@ -4298,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>5</v>
       </c>
@@ -4332,7 +4334,7 @@
       <c r="S86" s="39"/>
       <c r="T86" s="40"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>6</v>
       </c>
@@ -4366,7 +4368,7 @@
       <c r="S87" s="39"/>
       <c r="T87" s="40"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="33">
         <v>7</v>
       </c>
@@ -4400,7 +4402,7 @@
       <c r="S88" s="39"/>
       <c r="T88" s="40"/>
     </row>
-    <row r="89" spans="1:20" ht="15" thickBot="1">
+    <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="30">
         <v>8</v>
       </c>
@@ -4436,7 +4438,7 @@
       <c r="S89" s="39"/>
       <c r="T89" s="40"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="38"/>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -4457,7 +4459,7 @@
       <c r="S90" s="39"/>
       <c r="T90" s="40"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="38"/>
       <c r="B91" s="39"/>
       <c r="C91" s="39"/>
@@ -4478,7 +4480,7 @@
       <c r="S91" s="39"/>
       <c r="T91" s="40"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="38"/>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
@@ -4499,7 +4501,7 @@
       <c r="S92" s="39"/>
       <c r="T92" s="40"/>
     </row>
-    <row r="93" spans="1:20" ht="58.5" thickBot="1">
+    <row r="93" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="42"/>
       <c r="B93" s="43"/>
       <c r="C93" s="43"/>
